--- a/legislator/property/output/normal/林國正_2012-04-06_財產申報表_tmpd6491.xlsx
+++ b/legislator/property/output/normal/林國正_2012-04-06_財產申報表_tmpd6491.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
   <si>
     <t>土地坐落</t>
   </si>
@@ -162,7 +162,19 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>潤泰全球股份有限公司</t>
+  </si>
+  <si>
+    <t>2012-04-06</t>
   </si>
 </sst>
 </file>
@@ -1058,13 +1070,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
@@ -1083,13 +1095,22 @@
       <c r="G1" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -1105,6 +1126,15 @@
       </c>
       <c r="G2" s="2">
         <v>4230</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1742</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林國正_2012-04-06_財產申報表_tmpd6491.xlsx
+++ b/legislator/property/output/normal/林國正_2012-04-06_財產申報表_tmpd6491.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="54">
   <si>
     <t>土地坐落</t>
   </si>
@@ -162,6 +162,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -172,6 +175,9 @@
   </si>
   <si>
     <t>潤泰全球股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-06</t>
@@ -1070,13 +1076,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
@@ -1104,13 +1110,16 @@
       <c r="J1" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -1128,12 +1137,15 @@
         <v>4230</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1742</v>
       </c>
     </row>

--- a/legislator/property/output/normal/林國正_2012-04-06_財產申報表_tmpd6491.xlsx
+++ b/legislator/property/output/normal/林國正_2012-04-06_財產申報表_tmpd6491.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="59">
   <si>
     <t>土地坐落</t>
   </si>
@@ -165,6 +165,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -174,13 +177,25 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>潤泰全球股份有限公司</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-06</t>
+  </si>
+  <si>
+    <t>tmpd6491</t>
   </si>
 </sst>
 </file>
@@ -1076,13 +1091,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
@@ -1113,13 +1128,22 @@
       <c r="K1" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -1137,16 +1161,25 @@
         <v>4230</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>1742</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="2">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林國正_2012-04-06_財產申報表_tmpd6491.xlsx
+++ b/legislator/property/output/normal/林國正_2012-04-06_財產申報表_tmpd6491.xlsx
@@ -19,9 +19,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="59">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="64">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>高雄市鼓山區龍華段八小段21900000地號</t>
+  </si>
+  <si>
+    <t>10000分之43</t>
+  </si>
+  <si>
+    <t>林國正</t>
+  </si>
+  <si>
+    <t>吳美惠</t>
+  </si>
+  <si>
+    <t>85年02月05日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-06</t>
+  </si>
+  <si>
+    <t>tmpd6491</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,31 +117,7 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>高雄市鼓山區龍華段八小段 2190-0000 地號</t>
-  </si>
-  <si>
-    <t>10000分之 43</t>
-  </si>
-  <si>
-    <t>林國正</t>
-  </si>
-  <si>
-    <t>吳美惠</t>
-  </si>
-  <si>
-    <t>85年02月 05日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>高雄市鼓山區龍華段八小段 06140-000 建號</t>
+    <t>高雄市鼓山區龍華段八小段06140000建號</t>
   </si>
   <si>
     <t>2分之1</t>
@@ -84,13 +135,13 @@
     <t>BluebirdSylphyGllTS(客車）</t>
   </si>
   <si>
-    <t>納智捷-L91M/L(客車）</t>
-  </si>
-  <si>
-    <t>98年10月 12日</t>
-  </si>
-  <si>
-    <t>99年05月 03日</t>
+    <t>納智捷L91ML(客車）</t>
+  </si>
+  <si>
+    <t>98年10月12日</t>
+  </si>
+  <si>
+    <t>99年05月03日</t>
   </si>
   <si>
     <t>幣別</t>
@@ -108,22 +159,22 @@
     <t>種類</t>
   </si>
   <si>
-    <t>國泰世華商業銀行南高雄 分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行基隆路 分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行港都分 行</t>
-  </si>
-  <si>
-    <t>台北公館郵局（第13支 局）</t>
+    <t>國泰世華商業銀行南高雄分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行基隆路分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行港都分行</t>
+  </si>
+  <si>
+    <t>台北公館郵局（第13支局）</t>
   </si>
   <si>
     <t>梧棲郵局（第42支局）</t>
   </si>
   <si>
-    <t>高雄金福路郵局(第4 4支 局）</t>
+    <t>高雄金福路郵局(第44支局）</t>
   </si>
   <si>
     <t>華南商業銀行北高雄分行</t>
@@ -144,12 +195,6 @@
     <t>活期存款</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -162,40 +207,10 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>潤泰全球股份有限公司</t>
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-06</t>
-  </si>
-  <si>
-    <t>tmpd6491</t>
   </si>
 </sst>
 </file>
@@ -554,13 +569,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,57 +597,120 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1560</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1742</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
         <v>1560</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1742</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -650,25 +728,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -676,25 +754,25 @@
         <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>109.54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -702,25 +780,25 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2">
         <v>109.54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -738,22 +816,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -761,19 +839,19 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2">
         <v>740000</v>
@@ -784,19 +862,19 @@
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
         <v>2198</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2">
         <v>800000</v>
@@ -817,13 +895,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -831,10 +909,10 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2">
         <v>20600</v>
@@ -845,10 +923,10 @@
         <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2">
         <v>15800</v>
@@ -869,19 +947,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -889,16 +967,16 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2">
         <v>3014</v>
@@ -909,16 +987,16 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2">
         <v>720</v>
@@ -929,16 +1007,16 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2">
         <v>2524462</v>
@@ -949,16 +1027,16 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2">
         <v>1042</v>
@@ -969,16 +1047,16 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2">
         <v>380</v>
@@ -989,16 +1067,16 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2">
         <v>27</v>
@@ -1009,16 +1087,16 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2">
         <v>741533</v>
@@ -1029,16 +1107,16 @@
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2">
         <v>2452375</v>
@@ -1049,16 +1127,16 @@
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2">
         <v>1514335</v>
@@ -1069,16 +1147,16 @@
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F11" s="2">
         <v>91804</v>
@@ -1099,43 +1177,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1143,10 +1221,10 @@
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2">
         <v>423</v>
@@ -1155,28 +1233,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2">
         <v>4230</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L2" s="2">
         <v>1742</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="N2" s="2">
         <v>62</v>

--- a/legislator/property/output/normal/林國正_2012-04-06_財產申報表_tmpd6491.xlsx
+++ b/legislator/property/output/normal/林國正_2012-04-06_財產申報表_tmpd6491.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
   <si>
     <t>name</t>
   </si>
@@ -63,105 +63,72 @@
     <t>index</t>
   </si>
   <si>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
     <t>高雄市鼓山區龍華段八小段21900000地號</t>
   </si>
   <si>
     <t>10000分之43</t>
   </si>
   <si>
+    <t>吳美惠</t>
+  </si>
+  <si>
+    <t>85年02月05日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-06</t>
+  </si>
+  <si>
     <t>林國正</t>
   </si>
   <si>
-    <t>吳美惠</t>
-  </si>
-  <si>
-    <t>85年02月05日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-06</t>
-  </si>
-  <si>
     <t>tmpd6491</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>高雄市鼓山區龍華段八小段06140000建號</t>
   </si>
   <si>
     <t>2分之1</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>BluebirdSylphyGllTS(客車）</t>
   </si>
   <si>
+    <t>98年10月12日</t>
+  </si>
+  <si>
     <t>納智捷L91ML(客車）</t>
   </si>
   <si>
-    <t>98年10月12日</t>
-  </si>
-  <si>
     <t>99年05月03日</t>
   </si>
   <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
     <t>國泰世華商業銀行南高雄分行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
     <t>台北富邦商業銀行基隆路分行</t>
   </si>
   <si>
@@ -189,9 +156,6 @@
     <t>高雄銀行營業部</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>活期存款</t>
   </si>
   <si>
@@ -202,15 +166,6 @@
   </si>
   <si>
     <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>潤泰全球股份有限公司</t>
-  </si>
-  <si>
-    <t>stock</t>
   </si>
 </sst>
 </file>
@@ -569,13 +524,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,99 +573,64 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>1560</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2">
         <v>1742</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1560</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1742</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="2">
-        <v>14</v>
+      <c r="P2" s="2">
+        <v>0.0043</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>6.708</v>
       </c>
     </row>
   </sheetData>
@@ -720,7 +640,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -728,77 +648,51 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1">
+        <v>109.54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2">
         <v>109.54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="2">
-        <v>109.54</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -808,7 +702,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -816,67 +710,44 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1997</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="G1" s="1">
+        <v>740000</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
-        <v>1997</v>
+        <v>2198</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2">
-        <v>740000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2198</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2">
         <v>800000</v>
       </c>
     </row>
@@ -887,7 +758,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -895,40 +766,26 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
+      </c>
+      <c r="D1" s="1">
+        <v>20600</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
-        <v>20600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>42</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -939,7 +796,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -947,218 +804,198 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
+      </c>
+      <c r="F1" s="1">
+        <v>3014</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2">
-        <v>3014</v>
+        <v>720</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2">
-        <v>720</v>
+        <v>2524462</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2">
-        <v>2524462</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2">
-        <v>1042</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2">
-        <v>380</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2">
-        <v>27</v>
+        <v>741533</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2">
-        <v>741533</v>
+        <v>2452375</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2">
-        <v>2452375</v>
+        <v>1514335</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2">
-        <v>1514335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>55</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2">
         <v>91804</v>
       </c>
     </row>
@@ -1169,13 +1006,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="B1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="2:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1183,16 +1020,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1214,50 +1051,6 @@
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>62</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2">
-        <v>423</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="2">
-        <v>4230</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1742</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="2">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林國正_2012-04-06_財產申報表_tmpd6491.xlsx
+++ b/legislator/property/output/normal/林國正_2012-04-06_財產申報表_tmpd6491.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="51">
   <si>
     <t>name</t>
   </si>
@@ -75,6 +75,9 @@
     <t>10000分之43</t>
   </si>
   <si>
+    <t>林國正</t>
+  </si>
+  <si>
     <t>吳美惠</t>
   </si>
   <si>
@@ -96,9 +99,6 @@
     <t>2012-04-06</t>
   </si>
   <si>
-    <t>林國正</t>
-  </si>
-  <si>
     <t>tmpd6491</t>
   </si>
   <si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>潤泰全球股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
 </sst>
 </file>
@@ -524,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +588,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -597,25 +603,25 @@
         <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M2" s="2">
         <v>1742</v>
@@ -624,12 +630,65 @@
         <v>26</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
         <v>0.0043</v>
       </c>
       <c r="Q2" s="2">
+        <v>6.708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1560</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1742</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0043</v>
+      </c>
+      <c r="Q3" s="2">
         <v>6.708</v>
       </c>
     </row>
@@ -640,38 +699,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1">
-        <v>109.54</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
         <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>27</v>
@@ -686,13 +772,93 @@
         <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1742</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2">
         <v>19</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="P2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>54.77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
         <v>20</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2">
+        <v>109.54</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1742</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="2">
+        <v>20</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>54.77</v>
       </c>
     </row>
   </sheetData>
@@ -702,7 +868,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -716,13 +882,13 @@
         <v>1997</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1">
         <v>740000</v>
@@ -730,24 +896,47 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1997</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2">
+        <v>740000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>31</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2">
         <v>2198</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2">
         <v>800000</v>
       </c>
     </row>
@@ -758,7 +947,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -769,7 +958,7 @@
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1">
         <v>20600</v>
@@ -777,15 +966,29 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2">
+        <v>20600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>42</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -796,7 +999,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -813,7 +1016,7 @@
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1">
         <v>3014</v>
@@ -821,10 +1024,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>35</v>
@@ -833,18 +1036,18 @@
         <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2">
-        <v>720</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>35</v>
@@ -853,18 +1056,18 @@
         <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2">
-        <v>2524462</v>
+        <v>720</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>35</v>
@@ -873,18 +1076,18 @@
         <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2">
-        <v>1042</v>
+        <v>2524462</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>35</v>
@@ -893,41 +1096,41 @@
         <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2">
-        <v>380</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2">
-        <v>27</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>33</v>
@@ -936,15 +1139,15 @@
         <v>18</v>
       </c>
       <c r="F7" s="2">
-        <v>741533</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>35</v>
@@ -953,18 +1156,18 @@
         <v>33</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2">
-        <v>2452375</v>
+        <v>741533</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>35</v>
@@ -973,18 +1176,18 @@
         <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2">
-        <v>1514335</v>
+        <v>2452375</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>35</v>
@@ -996,6 +1199,26 @@
         <v>18</v>
       </c>
       <c r="F10" s="2">
+        <v>1514335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2">
         <v>91804</v>
       </c>
     </row>
@@ -1006,13 +1229,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1051,6 +1274,50 @@
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2">
+        <v>423</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4230</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1742</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林國正_2012-04-06_財產申報表_tmpd6491.xlsx
+++ b/legislator/property/output/normal/林國正_2012-04-06_財產申報表_tmpd6491.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="52">
   <si>
     <t>name</t>
   </si>
@@ -108,13 +108,16 @@
     <t>2分之1</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>BluebirdSylphyGllTS(客車）</t>
   </si>
   <si>
+    <t>納智捷L91ML(客車）</t>
+  </si>
+  <si>
     <t>98年10月12日</t>
-  </si>
-  <si>
-    <t>納智捷L91ML(客車）</t>
   </si>
   <si>
     <t>99年05月03日</t>
@@ -868,38 +871,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1">
-        <v>1997</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1">
-        <v>740000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
@@ -908,7 +932,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>21</v>
@@ -916,8 +940,29 @@
       <c r="G2" s="2">
         <v>740000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1742</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>31</v>
       </c>
@@ -931,13 +976,34 @@
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="2">
         <v>800000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1742</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="2">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -955,7 +1021,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
@@ -969,7 +1035,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -983,7 +1049,7 @@
         <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
@@ -1007,13 +1073,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>19</v>
@@ -1027,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
@@ -1047,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -1067,13 +1133,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
@@ -1087,13 +1153,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -1107,13 +1173,13 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
@@ -1127,13 +1193,13 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -1147,13 +1213,13 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
@@ -1167,13 +1233,13 @@
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -1187,13 +1253,13 @@
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
@@ -1207,13 +1273,13 @@
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
@@ -1243,13 +1309,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1281,7 +1347,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
@@ -1293,13 +1359,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2">
         <v>4230</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>24</v>

--- a/legislator/property/output/normal/林國正_2012-04-06_財產申報表_tmpd6491.xlsx
+++ b/legislator/property/output/normal/林國正_2012-04-06_財產申報表_tmpd6491.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="54">
   <si>
     <t>name</t>
   </si>
@@ -108,6 +108,9 @@
     <t>2分之1</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
   </si>
   <si>
     <t>99年05月03日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>新臺幣</t>
@@ -784,7 +790,7 @@
         <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>24</v>
@@ -837,7 +843,7 @@
         <v>22</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>24</v>
@@ -882,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -923,7 +929,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
@@ -932,7 +938,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>21</v>
@@ -941,7 +947,7 @@
         <v>740000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>24</v>
@@ -967,7 +973,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2">
         <v>2198</v>
@@ -976,7 +982,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>21</v>
@@ -985,7 +991,7 @@
         <v>800000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>24</v>
@@ -1021,7 +1027,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
@@ -1035,7 +1041,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1049,7 +1055,7 @@
         <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
@@ -1073,13 +1079,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>19</v>
@@ -1093,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
@@ -1113,13 +1119,13 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -1133,13 +1139,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
@@ -1153,13 +1159,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -1173,13 +1179,13 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
@@ -1193,13 +1199,13 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -1213,13 +1219,13 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
@@ -1233,13 +1239,13 @@
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -1253,13 +1259,13 @@
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
@@ -1273,13 +1279,13 @@
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
@@ -1309,13 +1315,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1347,7 +1353,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
@@ -1359,13 +1365,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2">
         <v>4230</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>24</v>

--- a/legislator/property/output/normal/林國正_2012-04-06_財產申報表_tmpd6491.xlsx
+++ b/legislator/property/output/normal/林國正_2012-04-06_財產申報表_tmpd6491.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="58">
   <si>
     <t>name</t>
   </si>
@@ -129,52 +129,64 @@
     <t>car</t>
   </si>
   <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
     <t>國泰世華商業銀行南高雄分行</t>
   </si>
   <si>
+    <t>台北富邦商業銀行基隆路分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行港都分行</t>
+  </si>
+  <si>
+    <t>台北公館郵局（第13支局）</t>
+  </si>
+  <si>
+    <t>梧棲郵局（第42支局）</t>
+  </si>
+  <si>
+    <t>高雄金福路郵局(第44支局）</t>
+  </si>
+  <si>
+    <t>華南商業銀行北高雄分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行南高雄分行</t>
+  </si>
+  <si>
+    <t>高雄銀行七賢分行</t>
+  </si>
+  <si>
+    <t>高雄銀行營業部</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
-    <t>台北富邦商業銀行基隆路分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行港都分行</t>
-  </si>
-  <si>
-    <t>台北公館郵局（第13支局）</t>
-  </si>
-  <si>
-    <t>梧棲郵局（第42支局）</t>
-  </si>
-  <si>
-    <t>高雄金福路郵局(第44支局）</t>
-  </si>
-  <si>
-    <t>華南商業銀行北高雄分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行南高雄分行</t>
-  </si>
-  <si>
-    <t>高雄銀行七賢分行</t>
-  </si>
-  <si>
-    <t>高雄銀行營業部</t>
-  </si>
-  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>潤泰全球股份有限公司</t>
@@ -1019,29 +1031,50 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1">
-        <v>20600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1049,19 +1082,61 @@
       <c r="D2" s="2">
         <v>20600</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1742</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="2">
         <v>15800</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1742</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1071,41 +1146,62 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1">
-        <v>3014</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
@@ -1113,19 +1209,40 @@
       <c r="F2" s="2">
         <v>3014</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1742</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -1133,19 +1250,40 @@
       <c r="F3" s="2">
         <v>720</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1742</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
@@ -1153,19 +1291,40 @@
       <c r="F4" s="2">
         <v>2524462</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1742</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -1173,19 +1332,40 @@
       <c r="F5" s="2">
         <v>1042</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1742</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
@@ -1193,19 +1373,40 @@
       <c r="F6" s="2">
         <v>380</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1742</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -1213,19 +1414,40 @@
       <c r="F7" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1742</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
@@ -1233,19 +1455,40 @@
       <c r="F8" s="2">
         <v>741533</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1742</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -1253,19 +1496,40 @@
       <c r="F9" s="2">
         <v>2452375</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1742</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
@@ -1273,25 +1537,67 @@
       <c r="F10" s="2">
         <v>1514335</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1742</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="2">
         <v>91804</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1742</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="2">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1315,13 +1621,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1353,7 +1659,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
@@ -1365,13 +1671,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2">
         <v>4230</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>24</v>
